--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 LA.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 LA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AFST-208</t>
   </si>
   <si>
@@ -301,6 +304,9 @@
     <t>13.04%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>KITSCH S</t>
   </si>
   <si>
@@ -325,6 +331,9 @@
     <t>52.38%</t>
   </si>
   <si>
+    <t>2.33%</t>
+  </si>
+  <si>
     <t>BELLAR W</t>
   </si>
   <si>
@@ -409,6 +418,9 @@
     <t>0.68%</t>
   </si>
   <si>
+    <t>2.01%</t>
+  </si>
+  <si>
     <t>COMM-407</t>
   </si>
   <si>
@@ -544,6 +556,9 @@
     <t>21.43%</t>
   </si>
   <si>
+    <t>22.22%</t>
+  </si>
+  <si>
     <t>TAYLOR C</t>
   </si>
   <si>
@@ -574,6 +589,9 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>BRENNER C</t>
   </si>
   <si>
@@ -586,6 +604,9 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>RICO A</t>
   </si>
   <si>
@@ -601,6 +622,9 @@
     <t>1.59%</t>
   </si>
   <si>
+    <t>3.08%</t>
+  </si>
+  <si>
     <t>DUNN E</t>
   </si>
   <si>
@@ -631,6 +655,9 @@
     <t>58.06%</t>
   </si>
   <si>
+    <t>11.43%</t>
+  </si>
+  <si>
     <t>JUNG Y</t>
   </si>
   <si>
@@ -646,15 +673,15 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>3.03%</t>
+  </si>
+  <si>
     <t>STOVER D</t>
   </si>
   <si>
     <t>21.21%</t>
   </si>
   <si>
-    <t>3.03%</t>
-  </si>
-  <si>
     <t>9.09%</t>
   </si>
   <si>
@@ -697,9 +724,6 @@
     <t>96.88%</t>
   </si>
   <si>
-    <t>3.13%</t>
-  </si>
-  <si>
     <t>THIELMAN F</t>
   </si>
   <si>
@@ -724,6 +748,9 @@
     <t>5.56%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>SANDLIN L</t>
   </si>
   <si>
@@ -736,6 +763,9 @@
     <t>12.07%</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>SNIDER J</t>
   </si>
   <si>
@@ -790,6 +820,9 @@
     <t>4.88%</t>
   </si>
   <si>
+    <t>2.38%</t>
+  </si>
+  <si>
     <t>ENGL-338</t>
   </si>
   <si>
@@ -829,9 +862,6 @@
     <t>KINKEAD A</t>
   </si>
   <si>
-    <t>22.22%</t>
-  </si>
-  <si>
     <t>18.52%</t>
   </si>
   <si>
@@ -907,6 +937,9 @@
     <t>2.20%</t>
   </si>
   <si>
+    <t>1.09%</t>
+  </si>
+  <si>
     <t>HIST-106</t>
   </si>
   <si>
@@ -1018,6 +1051,9 @@
     <t>MILAM A</t>
   </si>
   <si>
+    <t>13.33%</t>
+  </si>
+  <si>
     <t>DEZORT S</t>
   </si>
   <si>
@@ -1042,6 +1078,9 @@
     <t>30.30%</t>
   </si>
   <si>
+    <t>5.71%</t>
+  </si>
+  <si>
     <t>REED R</t>
   </si>
   <si>
@@ -1087,6 +1126,9 @@
     <t>8.47%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>JORDAN S</t>
   </si>
   <si>
@@ -1120,6 +1162,9 @@
     <t>0.84%</t>
   </si>
   <si>
+    <t>0.42%</t>
+  </si>
+  <si>
     <t>DIXON W</t>
   </si>
   <si>
@@ -1132,9 +1177,6 @@
     <t>32.78%</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
     <t>POLS-306</t>
   </si>
   <si>
@@ -1192,9 +1234,6 @@
     <t>36.67%</t>
   </si>
   <si>
-    <t>3.33%</t>
-  </si>
-  <si>
     <t>POLS-671</t>
   </si>
   <si>
@@ -1360,9 +1399,6 @@
     <t>ORTEGA F</t>
   </si>
   <si>
-    <t>13.33%</t>
-  </si>
-  <si>
     <t>SHAFFER R</t>
   </si>
   <si>
@@ -1390,9 +1426,6 @@
     <t>37.14%</t>
   </si>
   <si>
-    <t>11.43%</t>
-  </si>
-  <si>
     <t>2.86%</t>
   </si>
   <si>
@@ -1553,6 +1586,9 @@
   </si>
   <si>
     <t>1.43%</t>
+  </si>
+  <si>
+    <t>1.41%</t>
   </si>
   <si>
     <t>WGST-200</t>
@@ -1599,12 +1635,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1898,15 +1933,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1931,4179 +1966,4656 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>2.881</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>2.81</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>3.8</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>3.704</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
         <v>3.333</v>
       </c>
       <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
         <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>40</v>
       </c>
       <c r="C27" t="n">
         <v>3.667</v>
       </c>
       <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" t="s">
         <v>41</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>40</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n">
         <v>3.9</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
         <v>3.667</v>
       </c>
       <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
         <v>42</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" t="s">
         <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>40</v>
       </c>
       <c r="C39" t="n">
         <v>3.8</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
         <v>3.667</v>
       </c>
       <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
         <v>42</v>
       </c>
-      <c r="E45" t="s">
-        <v>41</v>
-      </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>52</v>
       </c>
       <c r="C48" t="n">
         <v>3.833</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="n">
         <v>3.36</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" t="n">
         <v>3.364</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="n">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" t="n">
         <v>2.857</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" t="s">
         <v>72</v>
       </c>
-      <c r="F60" t="s">
-        <v>71</v>
-      </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" t="n">
         <v>3.174</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" t="n">
         <v>2.857</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" t="n">
         <v>3.398</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="n">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" t="s">
         <v>87</v>
       </c>
-      <c r="F64" t="s">
-        <v>86</v>
-      </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" t="n">
         <v>3.551</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" t="n">
         <v>3.348</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" t="n">
         <v>3.87</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C68" t="n">
         <v>3.167</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" t="n">
         <v>3.364</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70" t="n">
         <v>3.384</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C71" t="n">
         <v>3.208</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C74" t="n">
         <v>3.8</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C77" t="n">
         <v>3.368</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C80" t="n">
         <v>3.131</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G80" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C83" t="n">
         <v>3.411</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" t="s">
+        <v>127</v>
+      </c>
+      <c r="H83" t="s">
+        <v>128</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="B86" t="s">
         <v>123</v>
-      </c>
-      <c r="G83" t="s">
-        <v>124</v>
-      </c>
-      <c r="H83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="B86" t="s">
-        <v>120</v>
       </c>
       <c r="C86" t="n">
         <v>3.52</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C89" t="n">
         <v>3.5</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C92" t="n">
         <v>3.857</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C95" t="n">
         <v>2.74</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E95" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F95" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C98" t="n">
         <v>2.955</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G98" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C101" t="n">
         <v>3.176</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F101" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C104" t="n">
         <v>2.562</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G104" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C107" t="n">
         <v>2.907</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G107" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C110" t="n">
         <v>3.267</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C119" t="n">
         <v>3.143</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E119" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F119" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C120" t="n">
         <v>3.952</v>
       </c>
       <c r="D120" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E120" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C123" t="n">
         <v>3.774</v>
       </c>
       <c r="D123" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E123" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C124" t="n">
         <v>3.742</v>
       </c>
       <c r="D124" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I124" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C125" t="n">
         <v>3.536</v>
       </c>
       <c r="D125" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E125" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F125" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C126" t="n">
         <v>3.5085</v>
       </c>
       <c r="D126" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F126" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G126" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H126" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I126" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C127" t="n">
         <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E127" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F127" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G127" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H127" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C128" t="n">
         <v>3.387</v>
       </c>
       <c r="D128" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E128" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F128" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I128" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C129" t="n">
         <v>3.516</v>
       </c>
       <c r="D129" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E129" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F129" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C130" t="n">
         <v>3.578</v>
       </c>
       <c r="D130" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F130" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G130" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H130" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>218</v>
+      </c>
+      <c r="I130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C131" t="n">
         <v>3.273</v>
       </c>
       <c r="D131" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E131" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F131" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G131" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H131" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C132" t="n">
         <v>3.5</v>
       </c>
       <c r="D132" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E132" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F132" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>227</v>
+      </c>
+      <c r="I132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C133" t="n">
         <v>3.2</v>
       </c>
       <c r="D133" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F133" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C134" t="n">
         <v>3.938</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E134" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C135" t="n">
         <v>3.969</v>
       </c>
       <c r="D135" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E135" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C136" t="n">
         <v>3.565</v>
       </c>
       <c r="D136" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E136" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C137" t="n">
         <v>2.906</v>
       </c>
       <c r="D137" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E137" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F137" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I137" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C138" t="n">
         <v>2.995</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E138" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F138" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H138" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I138" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C139" t="n">
         <v>3.448</v>
       </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E139" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C142" t="n">
         <v>3.312</v>
       </c>
       <c r="D142" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E142" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C148" t="n">
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E148" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F148" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C151" t="n">
         <v>3.585</v>
       </c>
       <c r="D151" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E151" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F151" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I151" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C154" t="n">
         <v>3.68</v>
       </c>
       <c r="D154" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E154" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I154" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C157" t="n">
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E157" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F157" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C160" t="n">
         <v>3.818</v>
       </c>
       <c r="D160" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E160" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F160" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I160" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C163" t="n">
         <v>2.963</v>
       </c>
       <c r="D163" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="E163" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F163" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G163" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="H163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I163" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C166" t="n">
         <v>2.824</v>
       </c>
       <c r="D166" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F166" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C169" t="n">
         <v>3.111</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E169" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F169" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="G169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C172" t="n">
         <v>3.6</v>
       </c>
       <c r="D172" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E172" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C175" t="n">
         <v>3.722</v>
       </c>
       <c r="D175" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E175" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H178" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C181" t="n">
         <v>3.923</v>
       </c>
       <c r="D181" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E181" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C184" t="n">
         <v>3.077</v>
       </c>
       <c r="D184" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E184" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F184" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H184" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C187" t="n">
         <v>3.176</v>
       </c>
       <c r="D187" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E187" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F187" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G187" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I187" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C190" t="n">
         <v>3.03</v>
       </c>
       <c r="D190" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E190" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F190" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="G190" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="H190" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>313</v>
+      </c>
+      <c r="I190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C193" t="n">
         <v>2.759</v>
       </c>
       <c r="D193" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E193" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F193" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="G193" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H193" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>318</v>
+      </c>
+      <c r="I193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C196" t="n">
         <v>3.222</v>
       </c>
       <c r="D196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E196" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F196" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H196" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C199" t="n">
         <v>3.346</v>
       </c>
       <c r="D199" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E199" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F199" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C202" t="n">
         <v>3.103</v>
       </c>
       <c r="D202" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E202" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F202" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H202" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C205" t="n">
         <v>3.25</v>
       </c>
       <c r="D205" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E205" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H205" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I205" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C208" t="n">
         <v>2.656</v>
       </c>
       <c r="D208" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="E208" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F208" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G208" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="H208" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I208" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C211" t="n">
         <v>3.9</v>
       </c>
       <c r="D211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H211" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C214" t="n">
         <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H214" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I214" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C217" t="n">
         <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H217" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H220" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C223" t="n">
         <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H223" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C226" t="n">
         <v>3.8</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H226" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="B229" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C229" t="n">
         <v>3.923</v>
       </c>
       <c r="D229" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E229" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H229" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I229" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C230" t="n">
         <v>3.9</v>
       </c>
       <c r="D230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C231" t="n">
         <v>3.95</v>
       </c>
       <c r="D231" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E231" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H231" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C234" t="n">
         <v>3.182</v>
       </c>
       <c r="D234" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E234" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F234" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G234" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I234" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C235" t="n">
         <v>2.75</v>
       </c>
       <c r="D235" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E235" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F235" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H235" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I235" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C236" t="n">
         <v>3.615</v>
       </c>
       <c r="D236" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E236" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F236" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G236" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C239" t="n">
         <v>2.76</v>
       </c>
       <c r="D239" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E239" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F239" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G239" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H239" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I239" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C240" t="n">
         <v>3.167</v>
       </c>
       <c r="D240" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E240" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F240" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G240" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H240" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C243" t="n">
         <v>2.864</v>
       </c>
       <c r="D243" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E243" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F243" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G243" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H243" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I243" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C244" t="n">
         <v>2.516</v>
       </c>
       <c r="D244" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E244" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F244" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="G244" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H244" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>218</v>
+      </c>
+      <c r="I244" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C247" t="n">
         <v>3.176</v>
       </c>
       <c r="D247" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="E247" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="F247" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="G247" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="H247" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>381</v>
+      </c>
+      <c r="I247" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C248" t="n">
         <v>2.194</v>
       </c>
       <c r="D248" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="E248" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F248" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="G248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H248" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I248" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C251" t="n">
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I251" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C254" t="n">
         <v>3.139</v>
       </c>
       <c r="D254" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E254" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F254" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="G254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H254" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C257" t="n">
         <v>3.316</v>
       </c>
       <c r="D257" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E257" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="F257" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G257" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H257" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C260" t="n">
         <v>3.2</v>
       </c>
       <c r="D260" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E260" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F260" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="G260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H260" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C263" t="n">
         <v>3.433</v>
       </c>
       <c r="D263" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E263" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F263" t="s">
-        <v>392</v>
+        <v>249</v>
       </c>
       <c r="G263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H263" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="I263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C266" t="n">
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H266" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C269" t="n">
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E269" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F269" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H269" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I269" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C272" t="n">
         <v>3.029</v>
       </c>
       <c r="D272" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="E272" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="F272" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="G272" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="H272" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>416</v>
+      </c>
+      <c r="I272" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C273" t="n">
         <v>3.811</v>
       </c>
       <c r="D273" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E273" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F273" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C276" t="n">
         <v>3.0435</v>
       </c>
       <c r="D276" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="E276" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="F276" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="G276" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H276" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I276" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C279" t="n">
         <v>2.606</v>
       </c>
       <c r="D279" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="E279" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F279" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G279" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H279" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I279" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C282" t="n">
         <v>3.667</v>
       </c>
       <c r="D282" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="E282" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="F282" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G282" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H282" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I282" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C285" t="n">
         <v>4</v>
       </c>
       <c r="D285" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H285" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I285" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C288" t="n">
         <v>3.339</v>
       </c>
       <c r="D288" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="E288" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F288" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="G288" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="H288" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I288" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C291" t="n">
         <v>3.526</v>
       </c>
       <c r="D291" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="E291" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="F291" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="G291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H291" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C294" t="n">
         <v>3.115</v>
       </c>
       <c r="D294" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E294" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F294" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G294" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="H294" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>451</v>
+      </c>
+      <c r="I294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C297" t="n">
         <v>4</v>
       </c>
       <c r="D297" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I297" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C300" t="n">
         <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H300" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I300" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C303" t="n">
         <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E303" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F303" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G303" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H303" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I303" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C306" t="n">
         <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E306" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F306" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G306" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H306" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C307" t="n">
         <v>4</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H307" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C310" t="n">
         <v>4</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H310" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C313" t="n">
         <v>3.533</v>
       </c>
       <c r="D313" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E313" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F313" t="s">
-        <v>448</v>
+        <v>345</v>
       </c>
       <c r="G313" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H313" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I313" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="B314" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C314" t="n">
         <v>3.8</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E314" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F314" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G314" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H314" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="B317" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C317" t="n">
         <v>2.75</v>
       </c>
       <c r="D317" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="E317" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="F317" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="G317" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H317" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I317" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C320" t="n">
         <v>2.886</v>
       </c>
       <c r="D320" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E320" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F320" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G320" t="s">
-        <v>458</v>
+        <v>213</v>
       </c>
       <c r="H320" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>470</v>
+      </c>
+      <c r="I320" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C323" t="n">
         <v>3.053</v>
       </c>
       <c r="D323" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="E323" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F323" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G323" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H323" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I323" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="B326" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C326" t="n">
         <v>2.722</v>
       </c>
       <c r="D326" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="E326" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F326" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H326" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I326" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C329" t="n">
         <v>2.826</v>
       </c>
       <c r="D329" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E329" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F329" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="G329" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H329" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I329" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C332" t="n">
         <v>2.923</v>
       </c>
       <c r="D332" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="E332" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F332" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G332" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H332" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I332" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C335" t="n">
         <v>4</v>
       </c>
       <c r="D335" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E335" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F335" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G335" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H335" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="B338" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="C338" t="n">
         <v>3.933</v>
       </c>
       <c r="D338" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="E338" t="s">
-        <v>372</v>
+        <v>196</v>
       </c>
       <c r="F338" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G338" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H338" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C341" t="n">
         <v>4</v>
       </c>
       <c r="D341" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H341" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="B344" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C344" t="n">
         <v>3.438</v>
       </c>
       <c r="D344" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E344" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F344" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G344" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H344" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="B345" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C345" t="n">
         <v>3.6</v>
       </c>
       <c r="D345" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="E345" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F345" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G345" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="H345" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I345" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="B346" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C346" t="n">
         <v>3.412</v>
       </c>
       <c r="D346" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="E346" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F346" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G346" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H346" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="I346" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="B349" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C349" t="n">
         <v>3.389</v>
       </c>
       <c r="D349" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E349" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F349" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G349" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H349" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I349" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="B350" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C350" t="n">
         <v>3.889</v>
       </c>
       <c r="D350" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="E350" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
       <c r="B351" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="C351" t="n">
         <v>3.667</v>
       </c>
       <c r="D351" t="s">
+        <v>43</v>
+      </c>
+      <c r="E351" t="s">
         <v>42</v>
       </c>
-      <c r="E351" t="s">
-        <v>41</v>
-      </c>
       <c r="F351" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G351" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H351" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I351" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="A353" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
       <c r="B354" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C354" t="n">
         <v>3.79</v>
       </c>
       <c r="D354" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E354" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="F354" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G354" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H354" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="B355" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C355" t="n">
         <v>2.792</v>
       </c>
       <c r="D355" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E355" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F355" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G355" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H355" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I355" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
       <c r="A357" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="B358" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C358" t="n">
         <v>3.19</v>
       </c>
       <c r="D358" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E358" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F358" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G358" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H358" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I358" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="A360" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
       <c r="B361" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C361" t="n">
         <v>3.333</v>
       </c>
       <c r="D361" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E361" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F361" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G361" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H361" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I361" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="A363" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
       <c r="B364" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C364" t="n">
         <v>3.857</v>
       </c>
       <c r="D364" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="E364" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F364" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G364" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H364" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I364" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="A366" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
       <c r="B367" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C367" t="n">
         <v>3.714</v>
       </c>
       <c r="D367" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="E367" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F367" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G367" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H367" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I367" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
       <c r="B370" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C370" t="n">
         <v>3.794</v>
       </c>
       <c r="D370" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E370" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F370" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G370" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H370" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I370" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="B371" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C371" t="n">
         <v>3.343</v>
       </c>
       <c r="D371" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E371" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F371" t="s">
-        <v>458</v>
+        <v>213</v>
       </c>
       <c r="G371" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="H371" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
+        <v>523</v>
+      </c>
+      <c r="I371" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="B374" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C374" t="n">
         <v>3.727</v>
       </c>
       <c r="D374" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E374" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F374" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G374" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H374" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I374" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 LA.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 LA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
   <si>
     <t>Course</t>
   </si>
@@ -112,6 +112,24 @@
     <t>7.41%</t>
   </si>
   <si>
+    <t>ANTH-225</t>
+  </si>
+  <si>
+    <t>GURSKY-DOYEN S</t>
+  </si>
+  <si>
+    <t>23.08%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>26.92%</t>
+  </si>
+  <si>
+    <t>19.23%</t>
+  </si>
+  <si>
     <t>ANTH-330</t>
   </si>
   <si>
@@ -193,6 +211,45 @@
     <t>COMM-203</t>
   </si>
   <si>
+    <t>HINCK R</t>
+  </si>
+  <si>
+    <t>40.91%</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>CAMPBELL G</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>STREET J</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>38.10%</t>
+  </si>
+  <si>
+    <t>4.76%</t>
+  </si>
+  <si>
+    <t>RULE F</t>
+  </si>
+  <si>
+    <t>39.13%</t>
+  </si>
+  <si>
+    <t>21.74%</t>
+  </si>
+  <si>
     <t>SHIPLEY J</t>
   </si>
   <si>
@@ -208,45 +265,6 @@
     <t>4.00%</t>
   </si>
   <si>
-    <t>HINCK R</t>
-  </si>
-  <si>
-    <t>40.91%</t>
-  </si>
-  <si>
-    <t>54.55%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
-  </si>
-  <si>
-    <t>CAMPBELL G</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>STREET J</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>38.10%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>RULE F</t>
-  </si>
-  <si>
-    <t>39.13%</t>
-  </si>
-  <si>
-    <t>21.74%</t>
-  </si>
-  <si>
     <t>COX T</t>
   </si>
   <si>
@@ -889,9 +907,6 @@
     <t>HUDSON D</t>
   </si>
   <si>
-    <t>23.08%</t>
-  </si>
-  <si>
     <t>61.54%</t>
   </si>
   <si>
@@ -1276,6 +1291,15 @@
     <t>23.81%</t>
   </si>
   <si>
+    <t>PSYC-300</t>
+  </si>
+  <si>
+    <t>CARTER-SOWELL A</t>
+  </si>
+  <si>
+    <t>70.37%</t>
+  </si>
+  <si>
     <t>PSYC-304</t>
   </si>
   <si>
@@ -1423,15 +1447,21 @@
     <t>34.78%</t>
   </si>
   <si>
+    <t>SOCI-423</t>
+  </si>
+  <si>
+    <t>PLANKEY- V</t>
+  </si>
+  <si>
+    <t>93.33%</t>
+  </si>
+  <si>
     <t>SOCI-430</t>
   </si>
   <si>
     <t>DIETRICH K</t>
   </si>
   <si>
-    <t>30.77%</t>
-  </si>
-  <si>
     <t>SOCI-484</t>
   </si>
   <si>
@@ -1441,9 +1471,6 @@
     <t>MACKIN R</t>
   </si>
   <si>
-    <t>93.33%</t>
-  </si>
-  <si>
     <t>SOCI-491</t>
   </si>
   <si>
@@ -1504,6 +1531,9 @@
     <t>SPAN-202</t>
   </si>
   <si>
+    <t>LAWO-SUKAM A</t>
+  </si>
+  <si>
     <t>RODRIGUEZ G</t>
   </si>
   <si>
@@ -1562,6 +1592,12 @@
   </si>
   <si>
     <t>72.73%</t>
+  </si>
+  <si>
+    <t>WGST-300</t>
+  </si>
+  <si>
+    <t>57.14%</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,55 +2108,55 @@
         <v>33</v>
       </c>
       <c r="C14" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>35</v>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
@@ -2143,12 +2179,12 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
@@ -2171,21 +2207,21 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2199,21 +2235,21 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C27" t="n">
-        <v>3.667</v>
+        <v>3.333</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2227,21 +2263,21 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3.667</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -2255,21 +2291,21 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -2283,21 +2319,21 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>3.667</v>
+        <v>3.9</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2311,21 +2347,21 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C39" t="n">
-        <v>3.8</v>
+        <v>3.667</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2339,21 +2375,21 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2367,21 +2403,21 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C45" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -2395,21 +2431,21 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C48" t="n">
-        <v>3.833</v>
+        <v>3.667</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -2423,21 +2459,21 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3.833</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -2451,12 +2487,12 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
@@ -2479,116 +2515,75 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" t="n">
-        <v>3.36</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="B58" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
         <v>64</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C60" t="n">
-        <v>2.857</v>
+        <v>3.364</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C61" t="n">
-        <v>3.174</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -2599,42 +2594,42 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C62" t="n">
         <v>2.857</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C63" t="n">
-        <v>3.398</v>
+        <v>3.174</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
@@ -2645,22 +2640,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>3.36</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s">
         <v>11</v>
@@ -2668,45 +2663,45 @@
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C65" t="n">
-        <v>3.551</v>
+        <v>2.857</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C66" t="n">
-        <v>3.348</v>
+        <v>3.398</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2714,19 +2709,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
         <v>92</v>
       </c>
-      <c r="C67" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>93</v>
       </c>
-      <c r="E67" t="s">
-        <v>94</v>
-      </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -2737,19 +2732,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.551</v>
+      </c>
+      <c r="D68" t="s">
         <v>95</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D68" t="s">
-        <v>41</v>
       </c>
       <c r="E68" t="s">
         <v>96</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -2763,19 +2758,19 @@
         <v>97</v>
       </c>
       <c r="C69" t="n">
-        <v>3.364</v>
+        <v>3.348</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2783,19 +2778,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" t="s">
         <v>100</v>
       </c>
-      <c r="C70" t="n">
-        <v>3.384</v>
-      </c>
-      <c r="D70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" t="s">
-        <v>102</v>
-      </c>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -2806,47 +2801,88 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C71" t="n">
-        <v>3.208</v>
-      </c>
-      <c r="D71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C72" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="D72" t="s">
         <v>104</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E72" t="s">
         <v>105</v>
       </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>106</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.384</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C74" t="n">
-        <v>3.8</v>
+        <v>3.208</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
@@ -2857,99 +2893,99 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C77" t="n">
-        <v>3.368</v>
+        <v>3.8</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>3.131</v>
+        <v>3.368</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
         <v>117</v>
-      </c>
-      <c r="H80" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="D83" t="s">
         <v>120</v>
       </c>
-      <c r="C83" t="n">
-        <v>3.411</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>121</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>122</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>123</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>124</v>
-      </c>
-      <c r="H83" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C86" t="n">
-        <v>3.52</v>
+        <v>3.411</v>
       </c>
       <c r="D86" t="s">
         <v>127</v>
@@ -2964,20 +3000,20 @@
         <v>130</v>
       </c>
       <c r="H86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C89" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="D89" t="s">
         <v>133</v>
@@ -2986,35 +3022,35 @@
         <v>134</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C92" t="n">
-        <v>3.857</v>
+        <v>3.5</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="F92" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -3025,27 +3061,27 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C95" t="n">
-        <v>2.74</v>
+        <v>3.857</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E95" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3053,18 +3089,18 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C98" t="n">
-        <v>2.955</v>
+        <v>2.74</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
         <v>146</v>
@@ -3076,60 +3112,60 @@
         <v>148</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.955</v>
+      </c>
+      <c r="D101" t="s">
         <v>151</v>
       </c>
-      <c r="C101" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>152</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>153</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>154</v>
       </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C104" t="n">
-        <v>2.562</v>
+        <v>3.176</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G104" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
@@ -3145,7 +3181,7 @@
         <v>162</v>
       </c>
       <c r="C107" t="n">
-        <v>2.907</v>
+        <v>2.562</v>
       </c>
       <c r="D107" t="s">
         <v>163</v>
@@ -3154,10 +3190,10 @@
         <v>164</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G107" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3165,27 +3201,27 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C110" t="n">
-        <v>3.267</v>
+        <v>2.907</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -3193,24 +3229,24 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3.267</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -3221,12 +3257,12 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C116" t="n">
         <v>4</v>
@@ -3249,72 +3285,72 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C119" t="n">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" t="n">
         <v>3.143</v>
       </c>
-      <c r="D119" t="s">
-        <v>174</v>
-      </c>
-      <c r="E119" t="s">
-        <v>101</v>
-      </c>
-      <c r="F119" t="s">
-        <v>175</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="D120" t="s">
-        <v>177</v>
-      </c>
-      <c r="E120" t="s">
-        <v>73</v>
-      </c>
-      <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>178</v>
+      <c r="D122" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" t="s">
+        <v>107</v>
+      </c>
+      <c r="F122" t="s">
+        <v>181</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C123" t="n">
-        <v>3.774</v>
+        <v>3.952</v>
       </c>
       <c r="D123" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E123" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
@@ -3326,450 +3362,450 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="B124" t="s">
-        <v>182</v>
-      </c>
-      <c r="C124" t="n">
-        <v>3.742</v>
-      </c>
-      <c r="D124" t="s">
-        <v>183</v>
-      </c>
-      <c r="E124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
         <v>184</v>
-      </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="B125" t="s">
-        <v>186</v>
-      </c>
-      <c r="C125" t="n">
-        <v>3.536</v>
-      </c>
-      <c r="D125" t="s">
-        <v>187</v>
-      </c>
-      <c r="E125" t="s">
-        <v>188</v>
-      </c>
-      <c r="F125" t="s">
-        <v>189</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C126" t="n">
-        <v>3.5085</v>
+        <v>3.774</v>
       </c>
       <c r="D126" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F126" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="B127" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>3.742</v>
       </c>
       <c r="D127" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E127" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G127" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C128" t="n">
-        <v>3.387</v>
+        <v>3.536</v>
       </c>
       <c r="D128" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E128" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F128" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C129" t="n">
-        <v>3.516</v>
+        <v>3.5085</v>
       </c>
       <c r="D129" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E129" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F129" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="H129" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" t="s">
+        <v>203</v>
+      </c>
+      <c r="F130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G130" t="s">
         <v>205</v>
       </c>
-      <c r="C130" t="n">
-        <v>3.578</v>
-      </c>
-      <c r="D130" t="s">
-        <v>206</v>
-      </c>
-      <c r="E130" t="s">
-        <v>207</v>
-      </c>
-      <c r="F130" t="s">
-        <v>208</v>
-      </c>
-      <c r="G130" t="s">
-        <v>209</v>
-      </c>
       <c r="H130" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C131" t="n">
-        <v>3.273</v>
+        <v>3.387</v>
       </c>
       <c r="D131" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="E131" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F131" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G131" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C132" t="n">
-        <v>3.5</v>
+        <v>3.516</v>
       </c>
       <c r="D132" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E132" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F132" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C133" t="n">
-        <v>3.2</v>
+        <v>3.578</v>
       </c>
       <c r="D133" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F133" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="H133" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C134" t="n">
-        <v>3.938</v>
+        <v>3.273</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="E134" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H134" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C135" t="n">
-        <v>3.969</v>
+        <v>3.5</v>
       </c>
       <c r="D135" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E135" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>226</v>
+      </c>
+      <c r="E136" t="s">
+        <v>227</v>
+      </c>
+      <c r="F136" t="s">
         <v>228</v>
       </c>
-      <c r="C136" t="n">
-        <v>3.565</v>
-      </c>
-      <c r="D136" t="s">
-        <v>229</v>
-      </c>
-      <c r="E136" t="s">
-        <v>230</v>
-      </c>
-      <c r="F136" t="s">
-        <v>11</v>
-      </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C137" t="n">
-        <v>2.906</v>
+        <v>3.938</v>
       </c>
       <c r="D137" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="F137" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C138" t="n">
-        <v>2.995</v>
+        <v>3.969</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E138" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F138" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
+        <v>234</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3.565</v>
+      </c>
+      <c r="D139" t="s">
+        <v>235</v>
+      </c>
+      <c r="E139" t="s">
+        <v>236</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>90</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="D140" t="s">
+        <v>238</v>
+      </c>
+      <c r="E140" t="s">
+        <v>239</v>
+      </c>
+      <c r="F140" t="s">
         <v>240</v>
       </c>
-      <c r="C139" t="n">
-        <v>3.448</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
         <v>241</v>
       </c>
-      <c r="E139" t="s">
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" t="s">
         <v>242</v>
       </c>
-      <c r="F139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="C141" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="D141" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" t="s">
+        <v>244</v>
+      </c>
+      <c r="F141" t="s">
+        <v>245</v>
+      </c>
+      <c r="G141" t="s">
         <v>24</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H141" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C142" t="n">
-        <v>3.312</v>
+        <v>3.448</v>
       </c>
       <c r="D142" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E142" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H142" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="B145" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>3.312</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="B148" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
@@ -3780,21 +3816,21 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C151" t="n">
-        <v>3.585</v>
+        <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E151" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F151" t="s">
         <v>257</v>
@@ -3808,24 +3844,24 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C154" t="n">
-        <v>3.68</v>
+        <v>3.585</v>
       </c>
       <c r="D154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E154" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
@@ -3836,83 +3872,83 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>3.68</v>
       </c>
       <c r="D157" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E157" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="F157" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C160" t="n">
-        <v>3.818</v>
+        <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E160" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="F160" t="s">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H160" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C163" t="n">
-        <v>2.963</v>
+        <v>3.818</v>
       </c>
       <c r="D163" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E163" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F163" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="G163" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="H163" t="s">
         <v>11</v>
@@ -3920,80 +3956,80 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C166" t="n">
-        <v>2.824</v>
+        <v>2.963</v>
       </c>
       <c r="D166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="F166" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="H166" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C169" t="n">
-        <v>3.111</v>
+        <v>2.824</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="E169" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F169" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="G169" t="s">
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="B172" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C172" t="n">
-        <v>3.6</v>
+        <v>3.111</v>
       </c>
       <c r="D172" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="E172" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="G172" t="s">
         <v>11</v>
@@ -4004,21 +4040,21 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="B175" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C175" t="n">
-        <v>3.722</v>
+        <v>3.6</v>
       </c>
       <c r="D175" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="E175" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
@@ -4032,21 +4068,21 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="B178" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>3.722</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="F178" t="s">
         <v>11</v>
@@ -4060,21 +4096,21 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="B181" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C181" t="n">
-        <v>3.923</v>
+        <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
         <v>11</v>
@@ -4088,24 +4124,24 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="B184" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C184" t="n">
-        <v>3.077</v>
+        <v>3.923</v>
       </c>
       <c r="D184" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E184" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F184" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
         <v>11</v>
@@ -4116,27 +4152,27 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="B187" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C187" t="n">
-        <v>3.176</v>
+        <v>3.077</v>
       </c>
       <c r="D187" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="E187" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="F187" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="G187" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="H187" t="s">
         <v>11</v>
@@ -4144,43 +4180,43 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="B190" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C190" t="n">
-        <v>3.03</v>
+        <v>3.176</v>
       </c>
       <c r="D190" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="E190" t="s">
+        <v>107</v>
+      </c>
+      <c r="F190" t="s">
         <v>300</v>
-      </c>
-      <c r="F190" t="s">
-        <v>271</v>
       </c>
       <c r="G190" t="s">
         <v>301</v>
       </c>
       <c r="H190" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="B193" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C193" t="n">
-        <v>2.759</v>
+        <v>3.03</v>
       </c>
       <c r="D193" t="s">
         <v>304</v>
@@ -4189,10 +4225,10 @@
         <v>305</v>
       </c>
       <c r="F193" t="s">
+        <v>277</v>
+      </c>
+      <c r="G193" t="s">
         <v>306</v>
-      </c>
-      <c r="G193" t="s">
-        <v>189</v>
       </c>
       <c r="H193" t="s">
         <v>307</v>
@@ -4205,47 +4241,47 @@
     </row>
     <row r="196" spans="1:8">
       <c r="B196" t="s">
+        <v>303</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="D196" t="s">
         <v>309</v>
       </c>
-      <c r="C196" t="n">
-        <v>3.222</v>
-      </c>
-      <c r="D196" t="s">
-        <v>41</v>
-      </c>
       <c r="E196" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="F196" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="H196" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="B199" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C199" t="n">
-        <v>3.346</v>
+        <v>3.222</v>
       </c>
       <c r="D199" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="E199" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="F199" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="G199" t="s">
         <v>11</v>
@@ -4256,133 +4292,133 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="B202" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C202" t="n">
-        <v>3.103</v>
+        <v>3.346</v>
       </c>
       <c r="D202" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="F202" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="G202" t="s">
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="B205" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C205" t="n">
-        <v>3.25</v>
+        <v>3.103</v>
       </c>
       <c r="D205" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="E205" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="G205" t="s">
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="B208" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C208" t="n">
-        <v>2.656</v>
+        <v>3.25</v>
       </c>
       <c r="D208" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E208" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="F208" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="B211" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C211" t="n">
-        <v>3.9</v>
+        <v>2.656</v>
       </c>
       <c r="D211" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="G211" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="H211" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="B214" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C214" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F214" t="s">
         <v>11</v>
@@ -4396,12 +4432,12 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="B217" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C217" t="n">
         <v>4</v>
@@ -4424,12 +4460,12 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="B220" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C220" t="n">
         <v>4</v>
@@ -4452,12 +4488,12 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="B223" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C223" t="n">
         <v>4</v>
@@ -4480,21 +4516,21 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="B226" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C226" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
         <v>11</v>
@@ -4508,257 +4544,257 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="B229" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C229" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>338</v>
+      </c>
+      <c r="C232" t="n">
         <v>3.923</v>
       </c>
-      <c r="D229" t="s">
-        <v>288</v>
-      </c>
-      <c r="E229" t="s">
-        <v>198</v>
-      </c>
-      <c r="F229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" t="s">
-        <v>11</v>
-      </c>
-      <c r="H229" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="B230" t="s">
-        <v>334</v>
-      </c>
-      <c r="C230" t="n">
+      <c r="D232" t="s">
+        <v>294</v>
+      </c>
+      <c r="E232" t="s">
+        <v>204</v>
+      </c>
+      <c r="F232" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="B233" t="s">
+        <v>339</v>
+      </c>
+      <c r="C233" t="n">
         <v>3.9</v>
       </c>
-      <c r="D230" t="s">
-        <v>46</v>
-      </c>
-      <c r="E230" t="s">
-        <v>47</v>
-      </c>
-      <c r="F230" t="s">
-        <v>11</v>
-      </c>
-      <c r="G230" t="s">
-        <v>11</v>
-      </c>
-      <c r="H230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>335</v>
-      </c>
-      <c r="C231" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D231" t="s">
-        <v>336</v>
-      </c>
-      <c r="E231" t="s">
-        <v>337</v>
-      </c>
-      <c r="F231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231" t="s">
-        <v>11</v>
-      </c>
-      <c r="H231" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>338</v>
+      <c r="D233" t="s">
+        <v>52</v>
+      </c>
+      <c r="E233" t="s">
+        <v>53</v>
+      </c>
+      <c r="F233" t="s">
+        <v>11</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C234" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D234" t="s">
+        <v>341</v>
+      </c>
+      <c r="E234" t="s">
+        <v>342</v>
+      </c>
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>344</v>
+      </c>
+      <c r="C237" t="n">
         <v>3.182</v>
       </c>
-      <c r="D234" t="s">
-        <v>340</v>
-      </c>
-      <c r="E234" t="s">
-        <v>341</v>
-      </c>
-      <c r="F234" t="s">
-        <v>211</v>
-      </c>
-      <c r="G234" t="s">
-        <v>212</v>
-      </c>
-      <c r="H234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>342</v>
-      </c>
-      <c r="C235" t="n">
+      <c r="D237" t="s">
+        <v>345</v>
+      </c>
+      <c r="E237" t="s">
+        <v>346</v>
+      </c>
+      <c r="F237" t="s">
+        <v>217</v>
+      </c>
+      <c r="G237" t="s">
+        <v>218</v>
+      </c>
+      <c r="H237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
+        <v>347</v>
+      </c>
+      <c r="C238" t="n">
         <v>2.75</v>
       </c>
-      <c r="D235" t="s">
-        <v>246</v>
-      </c>
-      <c r="E235" t="s">
-        <v>316</v>
-      </c>
-      <c r="F235" t="s">
-        <v>343</v>
-      </c>
-      <c r="G235" t="s">
-        <v>160</v>
-      </c>
-      <c r="H235" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="B236" t="s">
-        <v>344</v>
-      </c>
-      <c r="C236" t="n">
-        <v>3.615</v>
-      </c>
-      <c r="D236" t="s">
-        <v>42</v>
-      </c>
-      <c r="E236" t="s">
-        <v>345</v>
-      </c>
-      <c r="F236" t="s">
-        <v>346</v>
-      </c>
-      <c r="G236" t="s">
-        <v>11</v>
-      </c>
-      <c r="H236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>347</v>
+      <c r="D238" t="s">
+        <v>252</v>
+      </c>
+      <c r="E238" t="s">
+        <v>321</v>
+      </c>
+      <c r="F238" t="s">
+        <v>348</v>
+      </c>
+      <c r="G238" t="s">
+        <v>166</v>
+      </c>
+      <c r="H238" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="B239" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C239" t="n">
+        <v>3.615</v>
+      </c>
+      <c r="D239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239" t="s">
+        <v>350</v>
+      </c>
+      <c r="F239" t="s">
+        <v>351</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="B242" t="s">
+        <v>353</v>
+      </c>
+      <c r="C242" t="n">
         <v>2.76</v>
       </c>
-      <c r="D239" t="s">
-        <v>222</v>
-      </c>
-      <c r="E239" t="s">
-        <v>133</v>
-      </c>
-      <c r="F239" t="s">
-        <v>222</v>
-      </c>
-      <c r="G239" t="s">
-        <v>11</v>
-      </c>
-      <c r="H239" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="B240" t="s">
-        <v>349</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D240" t="s">
-        <v>350</v>
-      </c>
-      <c r="E240" t="s">
-        <v>69</v>
-      </c>
-      <c r="F240" t="s">
-        <v>316</v>
-      </c>
-      <c r="G240" t="s">
-        <v>69</v>
-      </c>
-      <c r="H240" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>351</v>
+      <c r="D242" t="s">
+        <v>228</v>
+      </c>
+      <c r="E242" t="s">
+        <v>139</v>
+      </c>
+      <c r="F242" t="s">
+        <v>228</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="B243" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C243" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D243" t="s">
+        <v>355</v>
+      </c>
+      <c r="E243" t="s">
+        <v>70</v>
+      </c>
+      <c r="F243" t="s">
+        <v>321</v>
+      </c>
+      <c r="G243" t="s">
+        <v>70</v>
+      </c>
+      <c r="H243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="B246" t="s">
+        <v>357</v>
+      </c>
+      <c r="C246" t="n">
         <v>2.864</v>
       </c>
-      <c r="D243" t="s">
-        <v>353</v>
-      </c>
-      <c r="E243" t="s">
-        <v>354</v>
-      </c>
-      <c r="F243" t="s">
-        <v>355</v>
-      </c>
-      <c r="G243" t="s">
-        <v>356</v>
-      </c>
-      <c r="H243" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>357</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2.516</v>
-      </c>
-      <c r="D244" t="s">
-        <v>304</v>
-      </c>
-      <c r="E244" t="s">
+      <c r="D246" t="s">
         <v>358</v>
       </c>
-      <c r="F244" t="s">
+      <c r="E246" t="s">
         <v>359</v>
       </c>
-      <c r="G244" t="s">
+      <c r="F246" t="s">
         <v>360</v>
       </c>
-      <c r="H244" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
+      <c r="G246" t="s">
         <v>361</v>
+      </c>
+      <c r="H246" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -4766,95 +4802,95 @@
         <v>362</v>
       </c>
       <c r="C247" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="D247" t="s">
+        <v>309</v>
+      </c>
+      <c r="E247" t="s">
+        <v>363</v>
+      </c>
+      <c r="F247" t="s">
+        <v>364</v>
+      </c>
+      <c r="G247" t="s">
+        <v>365</v>
+      </c>
+      <c r="H247" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>367</v>
+      </c>
+      <c r="C250" t="n">
         <v>3.176</v>
       </c>
-      <c r="D247" t="s">
-        <v>363</v>
-      </c>
-      <c r="E247" t="s">
-        <v>364</v>
-      </c>
-      <c r="F247" t="s">
-        <v>365</v>
-      </c>
-      <c r="G247" t="s">
-        <v>366</v>
-      </c>
-      <c r="H247" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="B248" t="s">
+      <c r="D250" t="s">
         <v>368</v>
       </c>
-      <c r="C248" t="n">
-        <v>2.194</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="E250" t="s">
         <v>369</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F250" t="s">
         <v>370</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G250" t="s">
         <v>371</v>
       </c>
-      <c r="G248" t="s">
-        <v>27</v>
-      </c>
-      <c r="H248" t="s">
+      <c r="H250" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="B251" t="s">
+        <v>373</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="D251" t="s">
         <v>374</v>
       </c>
-      <c r="C251" t="n">
-        <v>4</v>
-      </c>
-      <c r="D251" t="s">
-        <v>10</v>
-      </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="G251" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H251" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="B254" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C254" t="n">
-        <v>3.139</v>
+        <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E254" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="F254" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="G254" t="s">
         <v>11</v>
@@ -4865,18 +4901,18 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="B257" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C257" t="n">
-        <v>3.316</v>
+        <v>3.139</v>
       </c>
       <c r="D257" t="s">
-        <v>381</v>
+        <v>47</v>
       </c>
       <c r="E257" t="s">
         <v>382</v>
@@ -4901,16 +4937,16 @@
         <v>385</v>
       </c>
       <c r="C260" t="n">
-        <v>3.2</v>
+        <v>3.316</v>
       </c>
       <c r="D260" t="s">
-        <v>101</v>
+        <v>386</v>
       </c>
       <c r="E260" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F260" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
@@ -4921,18 +4957,18 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="B263" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C263" t="n">
-        <v>3.433</v>
+        <v>3.2</v>
       </c>
       <c r="D263" t="s">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="E263" t="s">
         <v>391</v>
@@ -4944,7 +4980,7 @@
         <v>11</v>
       </c>
       <c r="H263" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -4957,32 +4993,32 @@
         <v>394</v>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>3.433</v>
       </c>
       <c r="D266" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="E266" t="s">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="G266" t="s">
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C269" t="n">
         <v>4</v>
@@ -5005,57 +5041,57 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C272" t="n">
+        <v>4</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+      <c r="H272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>403</v>
+      </c>
+      <c r="C275" t="n">
         <v>3.029</v>
       </c>
-      <c r="D272" t="s">
-        <v>399</v>
-      </c>
-      <c r="E272" t="s">
-        <v>400</v>
-      </c>
-      <c r="F272" t="s">
-        <v>401</v>
-      </c>
-      <c r="G272" t="s">
-        <v>402</v>
-      </c>
-      <c r="H272" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="B273" t="s">
+      <c r="D275" t="s">
         <v>404</v>
       </c>
-      <c r="C273" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="D273" t="s">
+      <c r="E275" t="s">
         <v>405</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F275" t="s">
         <v>406</v>
       </c>
-      <c r="F273" t="s">
+      <c r="G275" t="s">
         <v>407</v>
       </c>
-      <c r="G273" t="s">
-        <v>11</v>
-      </c>
-      <c r="H273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
+      <c r="H275" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5064,7 +5100,7 @@
         <v>409</v>
       </c>
       <c r="C276" t="n">
-        <v>3.0435</v>
+        <v>3.811</v>
       </c>
       <c r="D276" t="s">
         <v>410</v>
@@ -5073,7 +5109,7 @@
         <v>411</v>
       </c>
       <c r="F276" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G276" t="s">
         <v>11</v>
@@ -5084,30 +5120,30 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="B279" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C279" t="n">
-        <v>2.606</v>
+        <v>3.0435</v>
       </c>
       <c r="D279" t="s">
-        <v>271</v>
+        <v>415</v>
       </c>
       <c r="E279" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F279" t="s">
         <v>415</v>
       </c>
       <c r="G279" t="s">
-        <v>416</v>
+        <v>11</v>
       </c>
       <c r="H279" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -5117,47 +5153,47 @@
     </row>
     <row r="282" spans="1:8">
       <c r="B282" t="s">
-        <v>9</v>
+        <v>418</v>
       </c>
       <c r="C282" t="n">
-        <v>3.667</v>
+        <v>2.606</v>
       </c>
       <c r="D282" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="E282" t="s">
         <v>419</v>
       </c>
       <c r="F282" t="s">
-        <v>73</v>
+        <v>420</v>
       </c>
       <c r="G282" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="H282" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="B285" t="s">
-        <v>421</v>
+        <v>9</v>
       </c>
       <c r="C285" t="n">
-        <v>4</v>
+        <v>3.667</v>
       </c>
       <c r="D285" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="E285" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="F285" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G285" t="s">
         <v>11</v>
@@ -5168,27 +5204,27 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="B288" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C288" t="n">
-        <v>3.339</v>
+        <v>3.074</v>
       </c>
       <c r="D288" t="s">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="E288" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F288" t="s">
-        <v>426</v>
+        <v>315</v>
       </c>
       <c r="G288" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="H288" t="s">
         <v>11</v>
@@ -5204,16 +5240,16 @@
         <v>429</v>
       </c>
       <c r="C291" t="n">
-        <v>3.526</v>
+        <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>430</v>
+        <v>10</v>
       </c>
       <c r="E291" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="F291" t="s">
-        <v>432</v>
+        <v>11</v>
       </c>
       <c r="G291" t="s">
         <v>11</v>
@@ -5224,52 +5260,52 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
+        <v>431</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="D294" t="s">
+        <v>432</v>
+      </c>
+      <c r="E294" t="s">
+        <v>433</v>
+      </c>
+      <c r="F294" t="s">
         <v>434</v>
       </c>
-      <c r="C294" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="D294" t="s">
+      <c r="G294" t="s">
         <v>435</v>
       </c>
-      <c r="E294" t="s">
-        <v>435</v>
-      </c>
-      <c r="F294" t="s">
-        <v>436</v>
-      </c>
-      <c r="G294" t="s">
-        <v>437</v>
-      </c>
       <c r="H294" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C297" t="n">
-        <v>4</v>
+        <v>3.526</v>
       </c>
       <c r="D297" t="s">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="E297" t="s">
-        <v>11</v>
+        <v>439</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="G297" t="s">
         <v>11</v>
@@ -5280,40 +5316,40 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="C300" t="n">
-        <v>4</v>
+        <v>3.115</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="E300" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="G300" t="s">
-        <v>11</v>
+        <v>445</v>
       </c>
       <c r="H300" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C303" t="n">
         <v>4</v>
@@ -5336,12 +5372,12 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="B306" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C306" t="n">
         <v>4</v>
@@ -5362,187 +5398,187 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
-      <c r="B307" t="s">
-        <v>429</v>
-      </c>
-      <c r="C307" t="n">
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>450</v>
+      </c>
+      <c r="C309" t="n">
         <v>4</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D309" t="s">
         <v>10</v>
       </c>
-      <c r="E307" t="s">
-        <v>11</v>
-      </c>
-      <c r="F307" t="s">
-        <v>11</v>
-      </c>
-      <c r="G307" t="s">
-        <v>11</v>
-      </c>
-      <c r="H307" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="B310" t="s">
-        <v>444</v>
-      </c>
-      <c r="C310" t="n">
+      <c r="E309" t="s">
+        <v>11</v>
+      </c>
+      <c r="F309" t="s">
+        <v>11</v>
+      </c>
+      <c r="G309" t="s">
+        <v>11</v>
+      </c>
+      <c r="H309" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>452</v>
+      </c>
+      <c r="C312" t="n">
         <v>4</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D312" t="s">
         <v>10</v>
       </c>
-      <c r="E310" t="s">
-        <v>11</v>
-      </c>
-      <c r="F310" t="s">
-        <v>11</v>
-      </c>
-      <c r="G310" t="s">
-        <v>11</v>
-      </c>
-      <c r="H310" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" t="s">
-        <v>446</v>
+      <c r="E312" t="s">
+        <v>11</v>
+      </c>
+      <c r="F312" t="s">
+        <v>11</v>
+      </c>
+      <c r="G312" t="s">
+        <v>11</v>
+      </c>
+      <c r="H312" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="B313" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C313" t="n">
+        <v>4</v>
+      </c>
+      <c r="D313" t="s">
+        <v>10</v>
+      </c>
+      <c r="E313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313" t="s">
+        <v>11</v>
+      </c>
+      <c r="G313" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="B316" t="s">
+        <v>452</v>
+      </c>
+      <c r="C316" t="n">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>10</v>
+      </c>
+      <c r="E316" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" t="s">
+        <v>11</v>
+      </c>
+      <c r="G316" t="s">
+        <v>11</v>
+      </c>
+      <c r="H316" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="B319" t="s">
+        <v>455</v>
+      </c>
+      <c r="C319" t="n">
         <v>3.533</v>
       </c>
-      <c r="D313" t="s">
-        <v>42</v>
-      </c>
-      <c r="E313" t="s">
+      <c r="D319" t="s">
+        <v>48</v>
+      </c>
+      <c r="E319" t="s">
         <v>27</v>
       </c>
-      <c r="F313" t="s">
-        <v>448</v>
-      </c>
-      <c r="G313" t="s">
-        <v>11</v>
-      </c>
-      <c r="H313" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>449</v>
-      </c>
-      <c r="C314" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D314" t="s">
-        <v>26</v>
-      </c>
-      <c r="E314" t="s">
-        <v>27</v>
-      </c>
-      <c r="F314" t="s">
-        <v>11</v>
-      </c>
-      <c r="G314" t="s">
-        <v>11</v>
-      </c>
-      <c r="H314" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>451</v>
-      </c>
-      <c r="C317" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D317" t="s">
-        <v>452</v>
-      </c>
-      <c r="E317" t="s">
-        <v>453</v>
-      </c>
-      <c r="F317" t="s">
-        <v>454</v>
-      </c>
-      <c r="G317" t="s">
-        <v>69</v>
-      </c>
-      <c r="H317" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
-        <v>455</v>
+      <c r="F319" t="s">
+        <v>456</v>
+      </c>
+      <c r="G319" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="B320" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C320" t="n">
-        <v>2.886</v>
+        <v>3.8</v>
       </c>
       <c r="D320" t="s">
-        <v>386</v>
+        <v>26</v>
       </c>
       <c r="E320" t="s">
-        <v>457</v>
+        <v>27</v>
       </c>
       <c r="F320" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G320" t="s">
-        <v>458</v>
+        <v>11</v>
       </c>
       <c r="H320" t="s">
-        <v>459</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="B323" t="s">
+        <v>459</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D323" t="s">
+        <v>460</v>
+      </c>
+      <c r="E323" t="s">
         <v>461</v>
       </c>
-      <c r="C323" t="n">
-        <v>3.053</v>
-      </c>
-      <c r="D323" t="s">
+      <c r="F323" t="s">
         <v>462</v>
       </c>
-      <c r="E323" t="s">
-        <v>109</v>
-      </c>
-      <c r="F323" t="s">
-        <v>383</v>
-      </c>
       <c r="G323" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="H323" t="s">
         <v>11</v>
@@ -5558,125 +5594,125 @@
         <v>464</v>
       </c>
       <c r="C326" t="n">
-        <v>2.722</v>
+        <v>2.886</v>
       </c>
       <c r="D326" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="E326" t="s">
         <v>465</v>
       </c>
       <c r="F326" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G326" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="H326" t="s">
-        <v>235</v>
+        <v>467</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="B329" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C329" t="n">
-        <v>2.826</v>
+        <v>3.053</v>
       </c>
       <c r="D329" t="s">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="E329" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="F329" t="s">
-        <v>468</v>
+        <v>388</v>
       </c>
       <c r="G329" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H329" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="B332" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C332" t="n">
-        <v>2.923</v>
+        <v>2.722</v>
       </c>
       <c r="D332" t="s">
-        <v>471</v>
+        <v>277</v>
       </c>
       <c r="E332" t="s">
-        <v>196</v>
+        <v>473</v>
       </c>
       <c r="F332" t="s">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="G332" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="H332" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="B335" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C335" t="n">
-        <v>4</v>
+        <v>2.826</v>
       </c>
       <c r="D335" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="E335" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="F335" t="s">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="G335" t="s">
         <v>11</v>
       </c>
       <c r="H335" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="B338" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C338" t="n">
         <v>3.933</v>
       </c>
       <c r="D338" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E338" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F338" t="s">
         <v>11</v>
@@ -5690,27 +5726,27 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="B341" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C341" t="n">
-        <v>4</v>
+        <v>2.923</v>
       </c>
       <c r="D341" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E341" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="F341" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G341" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="H341" t="s">
         <v>11</v>
@@ -5718,104 +5754,63 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="B344" t="s">
+        <v>481</v>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+      <c r="D344" t="s">
+        <v>10</v>
+      </c>
+      <c r="E344" t="s">
+        <v>11</v>
+      </c>
+      <c r="F344" t="s">
+        <v>11</v>
+      </c>
+      <c r="G344" t="s">
+        <v>11</v>
+      </c>
+      <c r="H344" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="B347" t="s">
+        <v>484</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="D347" t="s">
         <v>479</v>
       </c>
-      <c r="C344" t="n">
-        <v>3.438</v>
-      </c>
-      <c r="D344" t="s">
-        <v>245</v>
-      </c>
-      <c r="E344" t="s">
-        <v>246</v>
-      </c>
-      <c r="F344" t="s">
-        <v>105</v>
-      </c>
-      <c r="G344" t="s">
-        <v>11</v>
-      </c>
-      <c r="H344" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
-      <c r="B345" t="s">
-        <v>480</v>
-      </c>
-      <c r="C345" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D345" t="s">
-        <v>481</v>
-      </c>
-      <c r="E345" t="s">
-        <v>316</v>
-      </c>
-      <c r="F345" t="s">
-        <v>11</v>
-      </c>
-      <c r="G345" t="s">
-        <v>337</v>
-      </c>
-      <c r="H345" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="B346" t="s">
-        <v>482</v>
-      </c>
-      <c r="C346" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="D346" t="s">
-        <v>483</v>
-      </c>
-      <c r="E346" t="s">
-        <v>152</v>
-      </c>
-      <c r="F346" t="s">
-        <v>11</v>
-      </c>
-      <c r="G346" t="s">
-        <v>11</v>
-      </c>
-      <c r="H346" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
-      <c r="A348" t="s">
-        <v>484</v>
+      <c r="E347" t="s">
+        <v>377</v>
+      </c>
+      <c r="F347" t="s">
+        <v>11</v>
+      </c>
+      <c r="G347" t="s">
+        <v>11</v>
+      </c>
+      <c r="H347" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:8">
-      <c r="B349" t="s">
+      <c r="A349" t="s">
         <v>485</v>
-      </c>
-      <c r="C349" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D349" t="s">
-        <v>233</v>
-      </c>
-      <c r="E349" t="s">
-        <v>465</v>
-      </c>
-      <c r="F349" t="s">
-        <v>11</v>
-      </c>
-      <c r="G349" t="s">
-        <v>11</v>
-      </c>
-      <c r="H349" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -5823,70 +5818,70 @@
         <v>486</v>
       </c>
       <c r="C350" t="n">
-        <v>3.889</v>
+        <v>4</v>
       </c>
       <c r="D350" t="s">
+        <v>10</v>
+      </c>
+      <c r="E350" t="s">
+        <v>11</v>
+      </c>
+      <c r="F350" t="s">
+        <v>11</v>
+      </c>
+      <c r="G350" t="s">
+        <v>11</v>
+      </c>
+      <c r="H350" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" t="s">
         <v>487</v>
       </c>
-      <c r="E350" t="s">
-        <v>310</v>
-      </c>
-      <c r="F350" t="s">
-        <v>11</v>
-      </c>
-      <c r="G350" t="s">
-        <v>11</v>
-      </c>
-      <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
-      <c r="B351" t="s">
+    </row>
+    <row r="353" spans="1:8">
+      <c r="B353" t="s">
         <v>488</v>
       </c>
-      <c r="C351" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D351" t="s">
-        <v>42</v>
-      </c>
-      <c r="E351" t="s">
-        <v>41</v>
-      </c>
-      <c r="F351" t="s">
-        <v>11</v>
-      </c>
-      <c r="G351" t="s">
-        <v>11</v>
-      </c>
-      <c r="H351" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="A353" t="s">
-        <v>489</v>
+      <c r="C353" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="D353" t="s">
+        <v>251</v>
+      </c>
+      <c r="E353" t="s">
+        <v>252</v>
+      </c>
+      <c r="F353" t="s">
+        <v>111</v>
+      </c>
+      <c r="G353" t="s">
+        <v>11</v>
+      </c>
+      <c r="H353" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:8">
       <c r="B354" t="s">
+        <v>489</v>
+      </c>
+      <c r="C354" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D354" t="s">
         <v>490</v>
       </c>
-      <c r="C354" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D354" t="s">
-        <v>491</v>
-      </c>
       <c r="E354" t="s">
-        <v>492</v>
+        <v>321</v>
       </c>
       <c r="F354" t="s">
         <v>11</v>
       </c>
       <c r="G354" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="H354" t="s">
         <v>11</v>
@@ -5894,131 +5889,172 @@
     </row>
     <row r="355" spans="1:8">
       <c r="B355" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C355" t="n">
-        <v>2.792</v>
+        <v>3.412</v>
       </c>
       <c r="D355" t="s">
-        <v>41</v>
+        <v>492</v>
       </c>
       <c r="E355" t="s">
-        <v>494</v>
+        <v>158</v>
       </c>
       <c r="F355" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G355" t="s">
         <v>11</v>
       </c>
       <c r="H355" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="A357" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="B358" t="s">
+        <v>494</v>
+      </c>
+      <c r="C358" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="D358" t="s">
+        <v>239</v>
+      </c>
+      <c r="E358" t="s">
+        <v>473</v>
+      </c>
+      <c r="F358" t="s">
+        <v>11</v>
+      </c>
+      <c r="G358" t="s">
+        <v>11</v>
+      </c>
+      <c r="H358" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="B359" t="s">
+        <v>495</v>
+      </c>
+      <c r="C359" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D359" t="s">
         <v>496</v>
       </c>
-      <c r="C358" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="D358" t="s">
-        <v>78</v>
-      </c>
-      <c r="E358" t="s">
-        <v>71</v>
-      </c>
-      <c r="F358" t="s">
-        <v>86</v>
-      </c>
-      <c r="G358" t="s">
-        <v>73</v>
-      </c>
-      <c r="H358" t="s">
+      <c r="E359" t="s">
+        <v>315</v>
+      </c>
+      <c r="F359" t="s">
+        <v>11</v>
+      </c>
+      <c r="G359" t="s">
+        <v>11</v>
+      </c>
+      <c r="H359" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="360" spans="1:8">
-      <c r="A360" t="s">
+      <c r="B360" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="B361" t="s">
+      <c r="C360" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D360" t="s">
+        <v>48</v>
+      </c>
+      <c r="E360" t="s">
+        <v>47</v>
+      </c>
+      <c r="F360" t="s">
+        <v>11</v>
+      </c>
+      <c r="G360" t="s">
+        <v>11</v>
+      </c>
+      <c r="H360" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" t="s">
         <v>498</v>
       </c>
-      <c r="C361" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D361" t="s">
-        <v>279</v>
-      </c>
-      <c r="E361" t="s">
-        <v>279</v>
-      </c>
-      <c r="F361" t="s">
-        <v>310</v>
-      </c>
-      <c r="G361" t="s">
-        <v>11</v>
-      </c>
-      <c r="H361" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="363" spans="1:8">
-      <c r="A363" t="s">
+      <c r="B363" t="s">
         <v>499</v>
+      </c>
+      <c r="C363" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D363" t="s">
+        <v>500</v>
+      </c>
+      <c r="E363" t="s">
+        <v>501</v>
+      </c>
+      <c r="F363" t="s">
+        <v>11</v>
+      </c>
+      <c r="G363" t="s">
+        <v>11</v>
+      </c>
+      <c r="H363" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="B364" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C364" t="n">
-        <v>3.857</v>
+        <v>2.792</v>
       </c>
       <c r="D364" t="s">
-        <v>501</v>
+        <v>47</v>
       </c>
       <c r="E364" t="s">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="F364" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G364" t="s">
         <v>11</v>
       </c>
       <c r="H364" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="B367" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C367" t="n">
-        <v>3.714</v>
+        <v>3.15</v>
       </c>
       <c r="D367" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="E367" t="s">
-        <v>71</v>
+        <v>322</v>
       </c>
       <c r="F367" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="G367" t="s">
         <v>11</v>
@@ -6027,32 +6063,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
-      <c r="A369" t="s">
-        <v>503</v>
+    <row r="368" spans="1:8">
+      <c r="B368" t="s">
+        <v>506</v>
+      </c>
+      <c r="C368" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D368" t="s">
+        <v>84</v>
+      </c>
+      <c r="E368" t="s">
+        <v>72</v>
+      </c>
+      <c r="F368" t="s">
+        <v>92</v>
+      </c>
+      <c r="G368" t="s">
+        <v>74</v>
+      </c>
+      <c r="H368" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:8">
-      <c r="B370" t="s">
-        <v>504</v>
-      </c>
-      <c r="C370" t="n">
-        <v>3.794</v>
-      </c>
-      <c r="D370" t="s">
-        <v>505</v>
-      </c>
-      <c r="E370" t="s">
-        <v>506</v>
-      </c>
-      <c r="F370" t="s">
+      <c r="A370" t="s">
         <v>507</v>
-      </c>
-      <c r="G370" t="s">
-        <v>11</v>
-      </c>
-      <c r="H370" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -6060,49 +6096,184 @@
         <v>508</v>
       </c>
       <c r="C371" t="n">
-        <v>3.343</v>
+        <v>3.333</v>
       </c>
       <c r="D371" t="s">
-        <v>509</v>
+        <v>285</v>
       </c>
       <c r="E371" t="s">
-        <v>510</v>
+        <v>285</v>
       </c>
       <c r="F371" t="s">
-        <v>458</v>
+        <v>315</v>
       </c>
       <c r="G371" t="s">
-        <v>511</v>
+        <v>11</v>
       </c>
       <c r="H371" t="s">
-        <v>512</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="B374" t="s">
+        <v>510</v>
+      </c>
+      <c r="C374" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D374" t="s">
+        <v>511</v>
+      </c>
+      <c r="E374" t="s">
+        <v>85</v>
+      </c>
+      <c r="F374" t="s">
+        <v>11</v>
+      </c>
+      <c r="G374" t="s">
+        <v>11</v>
+      </c>
+      <c r="H374" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="B377" t="s">
+        <v>510</v>
+      </c>
+      <c r="C377" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D377" t="s">
+        <v>423</v>
+      </c>
+      <c r="E377" t="s">
+        <v>72</v>
+      </c>
+      <c r="F377" t="s">
+        <v>11</v>
+      </c>
+      <c r="G377" t="s">
+        <v>11</v>
+      </c>
+      <c r="H377" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="B380" t="s">
         <v>514</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C380" t="n">
+        <v>3.794</v>
+      </c>
+      <c r="D380" t="s">
+        <v>515</v>
+      </c>
+      <c r="E380" t="s">
+        <v>516</v>
+      </c>
+      <c r="F380" t="s">
+        <v>517</v>
+      </c>
+      <c r="G380" t="s">
+        <v>11</v>
+      </c>
+      <c r="H380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="B381" t="s">
+        <v>518</v>
+      </c>
+      <c r="C381" t="n">
+        <v>3.343</v>
+      </c>
+      <c r="D381" t="s">
+        <v>519</v>
+      </c>
+      <c r="E381" t="s">
+        <v>520</v>
+      </c>
+      <c r="F381" t="s">
+        <v>466</v>
+      </c>
+      <c r="G381" t="s">
+        <v>521</v>
+      </c>
+      <c r="H381" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="B384" t="s">
+        <v>524</v>
+      </c>
+      <c r="C384" t="n">
         <v>3.727</v>
       </c>
-      <c r="D374" t="s">
-        <v>515</v>
-      </c>
-      <c r="E374" t="s">
-        <v>140</v>
-      </c>
-      <c r="F374" t="s">
-        <v>11</v>
-      </c>
-      <c r="G374" t="s">
-        <v>11</v>
-      </c>
-      <c r="H374" t="s">
+      <c r="D384" t="s">
+        <v>525</v>
+      </c>
+      <c r="E384" t="s">
+        <v>146</v>
+      </c>
+      <c r="F384" t="s">
+        <v>11</v>
+      </c>
+      <c r="G384" t="s">
+        <v>11</v>
+      </c>
+      <c r="H384" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="B387" t="s">
+        <v>426</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3</v>
+      </c>
+      <c r="D387" t="s">
+        <v>72</v>
+      </c>
+      <c r="E387" t="s">
+        <v>527</v>
+      </c>
+      <c r="F387" t="s">
+        <v>11</v>
+      </c>
+      <c r="G387" t="s">
+        <v>85</v>
+      </c>
+      <c r="H387" t="s">
         <v>11</v>
       </c>
     </row>
